--- a/analysis_parameter_table.xlsx
+++ b/analysis_parameter_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D36893-3DD5-4557-92CD-52B86572F00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A31E6-D163-43BB-B4E7-5AE1B7976E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9540" yWindow="1275" windowWidth="26415" windowHeight="19755" xr2:uid="{191CE5D1-BBDA-48E6-9979-73933095B6B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>4/4</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>3/4</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>15m</t>
   </si>
 </sst>
 </file>
@@ -71,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,6 +145,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D383DC-5C71-4B45-B044-48CD3AAE7560}">
-  <dimension ref="G4:J10"/>
+  <dimension ref="F4:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,12 +493,12 @@
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G4" s="5">
         <v>45455</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
@@ -491,7 +512,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="2">
         <v>100</v>
       </c>
@@ -501,11 +525,14 @@
       <c r="I6" s="2">
         <v>69</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="2">
         <v>77</v>
       </c>
@@ -515,11 +542,14 @@
       <c r="I7" s="2">
         <v>62</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="2">
         <v>80</v>
       </c>
@@ -529,11 +559,14 @@
       <c r="I8" s="2">
         <v>68</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
       <c r="G9" s="2">
         <v>74</v>
       </c>
@@ -543,11 +576,11 @@
       <c r="I9" s="2">
         <v>62</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G10" s="1">
         <f>AVERAGE(G6:G9)</f>
         <v>82.75</v>

--- a/analysis_parameter_table.xlsx
+++ b/analysis_parameter_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A31E6-D163-43BB-B4E7-5AE1B7976E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14073BFF-4F02-4CF7-B9C7-4787B9C1B12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="1275" windowWidth="26415" windowHeight="19755" xr2:uid="{191CE5D1-BBDA-48E6-9979-73933095B6B6}"/>
+    <workbookView xWindow="3570" yWindow="1320" windowWidth="26415" windowHeight="19755" xr2:uid="{191CE5D1-BBDA-48E6-9979-73933095B6B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>4/4</t>
   </si>
@@ -60,13 +60,19 @@
   </si>
   <si>
     <t>15m</t>
+  </si>
+  <si>
+    <t>win average percentage</t>
+  </si>
+  <si>
+    <t>average days hold time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +82,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -127,14 +140,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -148,9 +159,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,123 +510,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D383DC-5C71-4B45-B044-48CD3AAE7560}">
-  <dimension ref="F4:J10"/>
+  <dimension ref="F3:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G4" s="5">
+    <row r="3" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G4" s="4">
         <v>45455</v>
       </c>
+      <c r="M4" s="4">
+        <v>45455</v>
+      </c>
     </row>
-    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G5" s="3" t="s">
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="2">
-        <v>100</v>
-      </c>
-      <c r="H6" s="2">
-        <v>54</v>
-      </c>
-      <c r="I6" s="2">
-        <v>69</v>
-      </c>
-      <c r="J6" s="6">
-        <v>83</v>
+      <c r="G6" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1169</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="5">
+        <v>3113</v>
       </c>
     </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2">
-        <v>77</v>
-      </c>
-      <c r="H7" s="2">
-        <v>51</v>
-      </c>
-      <c r="I7" s="2">
-        <v>62</v>
-      </c>
-      <c r="J7" s="6">
-        <v>74</v>
+      <c r="G7" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>277</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="5">
+        <v>583</v>
       </c>
     </row>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" s="2">
-        <v>66</v>
-      </c>
-      <c r="I8" s="2">
-        <v>68</v>
-      </c>
-      <c r="J8" s="6">
-        <v>100</v>
+      <c r="G8" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>71</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="5">
+        <v>135</v>
       </c>
     </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2">
-        <v>74</v>
-      </c>
-      <c r="H9" s="2">
-        <v>48</v>
-      </c>
-      <c r="I9" s="2">
-        <v>62</v>
-      </c>
-      <c r="J9" s="6">
-        <v>88</v>
+      <c r="G9" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1">
+        <v>67</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="5">
+        <v>115</v>
       </c>
     </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="1">
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G10" s="10">
         <f>AVERAGE(G6:G9)</f>
-        <v>82.75</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ref="H10:J10" si="0">AVERAGE(H6:H9)</f>
-        <v>54.75</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>65.25</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>86.25</v>
+        <v>0.65</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
+        <f>AVERAGE(J6:J9)</f>
+        <v>0.83249999999999991</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7">
+        <f>AVERAGE(M6:M9)</f>
+        <v>396</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7">
+        <f>AVERAGE(P6:P9)</f>
+        <v>986.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="G3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analysis_parameter_table.xlsx
+++ b/analysis_parameter_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E81983E-D882-417E-86DC-03FE4378E8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0889F8C-EE47-48C5-A843-B7AE9DF4653D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{191CE5D1-BBDA-48E6-9979-73933095B6B6}"/>
+    <workbookView xWindow="2730" yWindow="0" windowWidth="28890" windowHeight="21600" xr2:uid="{191CE5D1-BBDA-48E6-9979-73933095B6B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="72">
   <si>
     <t>X7 (1H)</t>
   </si>
@@ -1682,6 +1682,15 @@
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
+  </si>
+  <si>
+    <t>X8.5(1H)</t>
+  </si>
+  <si>
+    <t>X8.5 (15M)</t>
+  </si>
+  <si>
+    <t>X8.5</t>
   </si>
 </sst>
 </file>
@@ -2209,23 +2218,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D383DC-5C71-4B45-B044-48CD3AAE7560}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:Q118"/>
+  <dimension ref="A2:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L123" sqref="L123"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="V112" sqref="V112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.7109375" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="16" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2238,23 +2248,23 @@
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -2270,26 +2280,26 @@
       <c r="J3" s="1">
         <v>67</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="12">
+      <c r="Q3" s="12">
         <f>G17</f>
         <v>39.583333333333336</v>
       </c>
-      <c r="P3" s="12">
+      <c r="R3" s="12">
         <f>G18</f>
         <v>60.416666666666664</v>
       </c>
-      <c r="Q3" s="13">
-        <f>O3/P3</f>
+      <c r="S3" s="13">
+        <f>Q3/R3</f>
         <v>0.65517241379310354</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -2305,26 +2315,26 @@
       <c r="J4" s="1">
         <v>50</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="12">
+      <c r="Q4" s="12">
         <f>F17</f>
         <v>52.333333333333336</v>
       </c>
-      <c r="P4" s="12">
+      <c r="R4" s="12">
         <f>F18</f>
         <v>47.666666666666664</v>
       </c>
-      <c r="Q4" s="13">
-        <f>O4/P4</f>
+      <c r="S4" s="13">
+        <f>Q4/R4</f>
         <v>1.0979020979020979</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -2340,26 +2350,26 @@
       <c r="J5" s="1">
         <v>33</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="12">
+      <c r="Q5" s="12">
         <f>J17</f>
         <v>46.916666666666664</v>
       </c>
-      <c r="P5" s="12">
+      <c r="R5" s="12">
         <f>J18</f>
         <v>53.083333333333336</v>
       </c>
-      <c r="Q5" s="13">
-        <f>O5/P5</f>
+      <c r="S5" s="13">
+        <f>Q5/R5</f>
         <v>0.88383045525902659</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -2375,26 +2385,26 @@
       <c r="J6" s="1">
         <v>33</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="12">
+      <c r="Q6" s="12">
         <f>I17</f>
         <v>63.25</v>
       </c>
-      <c r="P6" s="12">
+      <c r="R6" s="12">
         <f>I18</f>
         <v>36.75</v>
       </c>
-      <c r="Q6" s="13">
-        <f>O6/P6</f>
+      <c r="S6" s="13">
+        <f>Q6/R6</f>
         <v>1.7210884353741496</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
@@ -2410,13 +2420,13 @@
       <c r="J7" s="1">
         <v>50</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -2432,13 +2442,13 @@
       <c r="J8" s="1">
         <v>50</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -2454,13 +2464,13 @@
       <c r="J9" s="1">
         <v>33</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
@@ -2476,13 +2486,13 @@
       <c r="J10" s="1">
         <v>67</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
@@ -2516,7 +2526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
@@ -2533,7 +2543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F14" s="1">
         <v>40</v>
       </c>
@@ -2547,17 +2557,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P16" s="15" t="s">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="14">
-        <f>IFERROR(AVERAGE(Q3:Q15),0)</f>
+      <c r="S16" s="14">
+        <f>IFERROR(AVERAGE(S3:S15),0)</f>
         <v>1.0894983505820943</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2578,17 +2588,19 @@
         <f>AVERAGE(J3:J16)</f>
         <v>46.916666666666664</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="M17" s="2"/>
-      <c r="P17" s="1" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="2"/>
+      <c r="R17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="16">
-        <f>MAX(Q3:Q10)</f>
+      <c r="S17" s="16">
+        <f>MAX(S3:S10)</f>
         <v>1.7210884353741496</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2609,16 +2621,18 @@
         <f>100-J17</f>
         <v>53.083333333333336</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="P18" s="1" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5"/>
+      <c r="R18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="16">
-        <f>MIN(Q3:Q15)</f>
+      <c r="S18" s="16">
+        <f>MIN(S3:S15)</f>
         <v>0.65517241379310354</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
@@ -2634,23 +2648,23 @@
       <c r="J21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="P21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="Q21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="R21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="S21" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
@@ -2666,26 +2680,26 @@
       <c r="J22" s="1">
         <v>50</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="O22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="P22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="12">
+      <c r="Q22" s="12">
         <f>G36</f>
         <v>37.416666666666664</v>
       </c>
-      <c r="P22" s="12">
+      <c r="R22" s="12">
         <f>G37</f>
         <v>62.583333333333336</v>
       </c>
-      <c r="Q22" s="13">
-        <f>O22/P22</f>
+      <c r="S22" s="13">
+        <f>Q22/R22</f>
         <v>0.59786950732356847</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>28</v>
       </c>
@@ -2701,26 +2715,26 @@
       <c r="J23" s="1">
         <v>50</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="O23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="P23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="12">
+      <c r="Q23" s="12">
         <f>F36</f>
         <v>51</v>
       </c>
-      <c r="P23" s="12">
+      <c r="R23" s="12">
         <f>F37</f>
         <v>49</v>
       </c>
-      <c r="Q23" s="13">
-        <f>O23/P23</f>
+      <c r="S23" s="13">
+        <f>Q23/R23</f>
         <v>1.0408163265306123</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>29</v>
       </c>
@@ -2736,26 +2750,26 @@
       <c r="J24" s="1">
         <v>33</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="O24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="P24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="12">
+      <c r="Q24" s="12">
         <f>J36</f>
         <v>41.583333333333336</v>
       </c>
-      <c r="P24" s="12">
+      <c r="R24" s="12">
         <f>J37</f>
         <v>58.416666666666664</v>
       </c>
-      <c r="Q24" s="13">
-        <f>O24/P24</f>
+      <c r="S24" s="13">
+        <f>Q24/R24</f>
         <v>0.71184022824536386</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>30</v>
       </c>
@@ -2771,26 +2785,26 @@
       <c r="J25" s="1">
         <v>33</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="O25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="P25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O25" s="12">
+      <c r="Q25" s="12">
         <f>I36</f>
         <v>55.25</v>
       </c>
-      <c r="P25" s="12">
+      <c r="R25" s="12">
         <f>I37</f>
         <v>44.75</v>
       </c>
-      <c r="Q25" s="13">
-        <f>O25/P25</f>
+      <c r="S25" s="13">
+        <f>Q25/R25</f>
         <v>1.23463687150838</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>31</v>
       </c>
@@ -2806,13 +2820,13 @@
       <c r="J26" s="1">
         <v>100</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>32</v>
       </c>
@@ -2828,13 +2842,13 @@
       <c r="J27" s="1">
         <v>50</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
@@ -2850,13 +2864,13 @@
       <c r="J28" s="1">
         <v>33</v>
       </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
@@ -2872,13 +2886,13 @@
       <c r="J29" s="1">
         <v>50</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>35</v>
       </c>
@@ -2895,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
@@ -2912,7 +2926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F32" s="1">
         <v>55</v>
       </c>
@@ -2926,7 +2940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F33" s="1">
         <v>36</v>
       </c>
@@ -2940,17 +2954,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P35" s="15" t="s">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="14">
-        <f>IFERROR(AVERAGE(Q22:Q34),0)</f>
+      <c r="S35" s="14">
+        <f>IFERROR(AVERAGE(S22:S34),0)</f>
         <v>0.89629073340198118</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
         <v>4</v>
       </c>
@@ -2971,17 +2985,19 @@
         <f>AVERAGE(J22:J35)</f>
         <v>41.583333333333336</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="M36" s="2"/>
-      <c r="P36" s="1" t="s">
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="8"/>
+      <c r="O36" s="2"/>
+      <c r="R36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q36" s="16">
-        <f>MAX(Q22:Q29)</f>
+      <c r="S36" s="16">
+        <f>MAX(S22:S29)</f>
         <v>1.23463687150838</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3002,16 +3018,18 @@
         <f>100-J36</f>
         <v>58.416666666666664</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="P37" s="1" t="s">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="5"/>
+      <c r="R37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q37" s="16">
-        <f>MIN(Q22:Q34)</f>
+      <c r="S37" s="16">
+        <f>MIN(S22:S34)</f>
         <v>0.59786950732356847</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>26</v>
       </c>
@@ -3027,23 +3045,23 @@
       <c r="J42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="O42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N42" s="10" t="s">
+      <c r="P42" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O42" s="10" t="s">
+      <c r="Q42" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P42" s="10" t="s">
+      <c r="R42" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="10" t="s">
+      <c r="S42" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>38</v>
       </c>
@@ -3059,26 +3077,26 @@
       <c r="J43" s="1">
         <v>67</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="O43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="P43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O43" s="12">
+      <c r="Q43" s="12">
         <f>G57</f>
         <v>40.166666666666664</v>
       </c>
-      <c r="P43" s="12">
+      <c r="R43" s="12">
         <f>G58</f>
         <v>59.833333333333336</v>
       </c>
-      <c r="Q43" s="13">
-        <f>O43/P43</f>
+      <c r="S43" s="13">
+        <f>Q43/R43</f>
         <v>0.67130919220055707</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>39</v>
       </c>
@@ -3094,26 +3112,26 @@
       <c r="J44" s="1">
         <v>50</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="O44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="P44" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O44" s="12">
+      <c r="Q44" s="12">
         <f>F57</f>
         <v>50.666666666666664</v>
       </c>
-      <c r="P44" s="12">
+      <c r="R44" s="12">
         <f>F58</f>
         <v>49.333333333333336</v>
       </c>
-      <c r="Q44" s="13">
-        <f>O44/P44</f>
+      <c r="S44" s="13">
+        <f>Q44/R44</f>
         <v>1.027027027027027</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>40</v>
       </c>
@@ -3129,26 +3147,26 @@
       <c r="J45" s="1">
         <v>33</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="O45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N45" s="9" t="s">
+      <c r="P45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O45" s="12">
+      <c r="Q45" s="12">
         <f>J57</f>
         <v>43</v>
       </c>
-      <c r="P45" s="12">
+      <c r="R45" s="12">
         <f>J58</f>
         <v>57</v>
       </c>
-      <c r="Q45" s="13">
-        <f>O45/P45</f>
+      <c r="S45" s="13">
+        <f>Q45/R45</f>
         <v>0.75438596491228072</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>41</v>
       </c>
@@ -3164,26 +3182,26 @@
       <c r="J46" s="1">
         <v>33</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="P46" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="12">
+      <c r="Q46" s="12">
         <f>I57</f>
         <v>56.25</v>
       </c>
-      <c r="P46" s="12">
+      <c r="R46" s="12">
         <f>I58</f>
         <v>43.75</v>
       </c>
-      <c r="Q46" s="13">
-        <f>O46/P46</f>
+      <c r="S46" s="13">
+        <f>Q46/R46</f>
         <v>1.2857142857142858</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>42</v>
       </c>
@@ -3199,13 +3217,13 @@
       <c r="J47" s="1">
         <v>100</v>
       </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="13"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>43</v>
       </c>
@@ -3221,13 +3239,13 @@
       <c r="J48" s="1">
         <v>50</v>
       </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="13"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>44</v>
       </c>
@@ -3243,13 +3261,13 @@
       <c r="J49" s="1">
         <v>33</v>
       </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="13"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>45</v>
       </c>
@@ -3265,13 +3283,13 @@
       <c r="J50" s="1">
         <v>50</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="13"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>46</v>
       </c>
@@ -3288,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>47</v>
       </c>
@@ -3305,7 +3323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F53" s="1">
         <v>46</v>
       </c>
@@ -3319,7 +3337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F54" s="1">
         <v>43</v>
       </c>
@@ -3333,17 +3351,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P56" s="15" t="s">
+    <row r="55" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R56" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q56" s="14">
-        <f>IFERROR(AVERAGE(Q43:Q55),0)</f>
+      <c r="S56" s="14">
+        <f>IFERROR(AVERAGE(S43:S55),0)</f>
         <v>0.93460911746353759</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
@@ -3364,17 +3382,19 @@
         <f>AVERAGE(J43:J56)</f>
         <v>43</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="M57" s="2"/>
-      <c r="P57" s="1" t="s">
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="8"/>
+      <c r="O57" s="2"/>
+      <c r="R57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q57" s="16">
-        <f>MAX(Q43:Q50)</f>
+      <c r="S57" s="16">
+        <f>MAX(S43:S50)</f>
         <v>1.2857142857142858</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>5</v>
       </c>
@@ -3395,16 +3415,18 @@
         <f>100-J57</f>
         <v>57</v>
       </c>
-      <c r="K58" s="5"/>
-      <c r="P58" s="1" t="s">
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="5"/>
+      <c r="R58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q58" s="16">
-        <f>MIN(Q43:Q55)</f>
+      <c r="S58" s="16">
+        <f>MIN(S43:S55)</f>
         <v>0.67130919220055707</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>26</v>
       </c>
@@ -3420,23 +3442,23 @@
       <c r="J63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M63" s="10" t="s">
+      <c r="O63" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N63" s="10" t="s">
+      <c r="P63" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O63" s="10" t="s">
+      <c r="Q63" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P63" s="10" t="s">
+      <c r="R63" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q63" s="10" t="s">
+      <c r="S63" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>48</v>
       </c>
@@ -3452,26 +3474,26 @@
       <c r="J64" s="1">
         <v>67</v>
       </c>
-      <c r="M64" s="9" t="s">
+      <c r="O64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="P64" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O64" s="12">
+      <c r="Q64" s="12">
         <f>G78</f>
         <v>37.416666666666664</v>
       </c>
-      <c r="P64" s="12">
+      <c r="R64" s="12">
         <f>G79</f>
         <v>62.583333333333336</v>
       </c>
-      <c r="Q64" s="13">
-        <f>O64/P64</f>
+      <c r="S64" s="13">
+        <f>Q64/R64</f>
         <v>0.59786950732356847</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>39</v>
       </c>
@@ -3487,26 +3509,26 @@
       <c r="J65" s="1">
         <v>50</v>
       </c>
-      <c r="M65" s="9" t="s">
+      <c r="O65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="P65" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O65" s="12">
+      <c r="Q65" s="12">
         <f>F78</f>
         <v>52.166666666666664</v>
       </c>
-      <c r="P65" s="12">
+      <c r="R65" s="12">
         <f>F79</f>
         <v>47.833333333333336</v>
       </c>
-      <c r="Q65" s="13">
-        <f>O65/P65</f>
+      <c r="S65" s="13">
+        <f>Q65/R65</f>
         <v>1.0905923344947734</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>40</v>
       </c>
@@ -3522,26 +3544,26 @@
       <c r="J66" s="1">
         <v>33</v>
       </c>
-      <c r="M66" s="9" t="s">
+      <c r="O66" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="P66" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O66" s="12">
+      <c r="Q66" s="12">
         <f>J78</f>
         <v>46.5</v>
       </c>
-      <c r="P66" s="12">
+      <c r="R66" s="12">
         <f>J79</f>
         <v>53.5</v>
       </c>
-      <c r="Q66" s="13">
-        <f>O66/P66</f>
+      <c r="S66" s="13">
+        <f>Q66/R66</f>
         <v>0.86915887850467288</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>41</v>
       </c>
@@ -3557,26 +3579,26 @@
       <c r="J67" s="1">
         <v>33</v>
       </c>
-      <c r="M67" s="9" t="s">
+      <c r="O67" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N67" s="9" t="s">
+      <c r="P67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O67" s="12">
+      <c r="Q67" s="12">
         <f>I78</f>
         <v>59.166666666666664</v>
       </c>
-      <c r="P67" s="12">
+      <c r="R67" s="12">
         <f>I79</f>
         <v>40.833333333333336</v>
       </c>
-      <c r="Q67" s="13">
-        <f>O67/P67</f>
+      <c r="S67" s="13">
+        <f>Q67/R67</f>
         <v>1.4489795918367345</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>42</v>
       </c>
@@ -3592,13 +3614,13 @@
       <c r="J68" s="1">
         <v>50</v>
       </c>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="13"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>43</v>
       </c>
@@ -3614,13 +3636,13 @@
       <c r="J69" s="1">
         <v>50</v>
       </c>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="13"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>49</v>
       </c>
@@ -3636,13 +3658,13 @@
       <c r="J70" s="1">
         <v>33</v>
       </c>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="13"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>50</v>
       </c>
@@ -3658,13 +3680,13 @@
       <c r="J71" s="1">
         <v>67</v>
       </c>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="13"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>46</v>
       </c>
@@ -3681,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>47</v>
       </c>
@@ -3698,7 +3720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F74" s="1">
         <v>56</v>
       </c>
@@ -3712,7 +3734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F75" s="1">
         <v>44</v>
       </c>
@@ -3726,17 +3748,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P77" s="15" t="s">
+    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R77" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q77" s="14">
-        <f>IFERROR(AVERAGE(Q64:Q76),0)</f>
+      <c r="S77" s="14">
+        <f>IFERROR(AVERAGE(S64:S76),0)</f>
         <v>1.0016500780399373</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
         <v>4</v>
       </c>
@@ -3757,17 +3779,19 @@
         <f>AVERAGE(J64:J77)</f>
         <v>46.5</v>
       </c>
-      <c r="K78" s="8"/>
-      <c r="M78" s="2"/>
-      <c r="P78" s="1" t="s">
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="8"/>
+      <c r="O78" s="2"/>
+      <c r="R78" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q78" s="16">
-        <f>MAX(Q64:Q71)</f>
+      <c r="S78" s="16">
+        <f>MAX(S64:S71)</f>
         <v>1.4489795918367345</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
         <v>5</v>
       </c>
@@ -3788,16 +3812,18 @@
         <f>100-J78</f>
         <v>53.5</v>
       </c>
-      <c r="K79" s="5"/>
-      <c r="P79" s="1" t="s">
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="5"/>
+      <c r="R79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q79" s="16">
-        <f>MIN(Q64:Q76)</f>
+      <c r="S79" s="16">
+        <f>MIN(S64:S76)</f>
         <v>0.59786950732356847</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>26</v>
       </c>
@@ -3813,23 +3839,23 @@
       <c r="J82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M82" s="10" t="s">
+      <c r="O82" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N82" s="10" t="s">
+      <c r="P82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O82" s="10" t="s">
+      <c r="Q82" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P82" s="10" t="s">
+      <c r="R82" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q82" s="10" t="s">
+      <c r="S82" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>52</v>
       </c>
@@ -3845,26 +3871,26 @@
       <c r="J83" s="1">
         <v>100</v>
       </c>
-      <c r="M83" s="9" t="s">
+      <c r="O83" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N83" s="9" t="s">
+      <c r="P83" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O83" s="12">
+      <c r="Q83" s="12">
         <f>G97</f>
         <v>33.25</v>
       </c>
-      <c r="P83" s="12">
+      <c r="R83" s="12">
         <f>G98</f>
         <v>66.75</v>
       </c>
-      <c r="Q83" s="13">
-        <f>O83/P83</f>
+      <c r="S83" s="13">
+        <f>Q83/R83</f>
         <v>0.49812734082397003</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>53</v>
       </c>
@@ -3880,26 +3906,26 @@
       <c r="J84" s="1">
         <v>0</v>
       </c>
-      <c r="M84" s="9" t="s">
+      <c r="O84" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N84" s="9" t="s">
+      <c r="P84" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O84" s="12">
+      <c r="Q84" s="12">
         <f>F97</f>
         <v>51.083333333333336</v>
       </c>
-      <c r="P84" s="12">
+      <c r="R84" s="12">
         <f>F98</f>
         <v>48.916666666666664</v>
       </c>
-      <c r="Q84" s="13">
-        <f>O84/P84</f>
+      <c r="S84" s="13">
+        <f>Q84/R84</f>
         <v>1.0442930153321976</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>51</v>
       </c>
@@ -3915,26 +3941,26 @@
       <c r="J85" s="1">
         <v>0</v>
       </c>
-      <c r="M85" s="9" t="s">
+      <c r="O85" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N85" s="9" t="s">
+      <c r="P85" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O85" s="12">
+      <c r="Q85" s="12">
         <f>J97</f>
         <v>25</v>
       </c>
-      <c r="P85" s="12">
+      <c r="R85" s="12">
         <f>J98</f>
         <v>75</v>
       </c>
-      <c r="Q85" s="13">
-        <f>O85/P85</f>
+      <c r="S85" s="13">
+        <f>Q85/R85</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>54</v>
       </c>
@@ -3950,26 +3976,26 @@
       <c r="J86" s="1">
         <v>0</v>
       </c>
-      <c r="M86" s="9" t="s">
+      <c r="O86" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="P86" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O86" s="12">
+      <c r="Q86" s="12">
         <f>I97</f>
         <v>75.916666666666671</v>
       </c>
-      <c r="P86" s="12">
+      <c r="R86" s="12">
         <f>I98</f>
         <v>24.083333333333329</v>
       </c>
-      <c r="Q86" s="13">
-        <f>O86/P86</f>
+      <c r="S86" s="13">
+        <f>Q86/R86</f>
         <v>3.1522491349480979</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>55</v>
       </c>
@@ -3985,13 +4011,13 @@
       <c r="J87" s="1">
         <v>0</v>
       </c>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="13"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>56</v>
       </c>
@@ -4007,13 +4033,13 @@
       <c r="J88" s="1">
         <v>0</v>
       </c>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="13"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>49</v>
       </c>
@@ -4029,13 +4055,13 @@
       <c r="J89" s="1">
         <v>0</v>
       </c>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="13"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>45</v>
       </c>
@@ -4051,13 +4077,13 @@
       <c r="J90" s="1">
         <v>100</v>
       </c>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="13"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>57</v>
       </c>
@@ -4074,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>47</v>
       </c>
@@ -4091,7 +4117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F93" s="1">
         <v>43</v>
       </c>
@@ -4105,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F94" s="1">
         <v>54</v>
       </c>
@@ -4119,17 +4145,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P96" s="15" t="s">
+    <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R96" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q96" s="14">
-        <f>IFERROR(AVERAGE(Q83:Q95),0)</f>
+      <c r="S96" s="14">
+        <f>IFERROR(AVERAGE(S83:S95),0)</f>
         <v>1.2570007061093997</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
         <v>4</v>
       </c>
@@ -4150,17 +4176,19 @@
         <f>AVERAGE(J83:J96)</f>
         <v>25</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="M97" s="2"/>
-      <c r="P97" s="1" t="s">
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="8"/>
+      <c r="O97" s="2"/>
+      <c r="R97" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q97" s="16">
-        <f>MAX(Q83:Q90)</f>
+      <c r="S97" s="16">
+        <f>MAX(S83:S90)</f>
         <v>3.1522491349480979</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>5</v>
       </c>
@@ -4181,16 +4209,18 @@
         <f>100-J97</f>
         <v>75</v>
       </c>
-      <c r="K98" s="5"/>
-      <c r="P98" s="1" t="s">
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="5"/>
+      <c r="R98" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q98" s="16">
-        <f>MIN(Q83:Q95)</f>
+      <c r="S98" s="16">
+        <f>MIN(S83:S95)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>26</v>
       </c>
@@ -4206,23 +4236,29 @@
       <c r="J102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="10" t="s">
+      <c r="L102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O102" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N102" s="10" t="s">
+      <c r="P102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O102" s="10" t="s">
+      <c r="Q102" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P102" s="10" t="s">
+      <c r="R102" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q102" s="10" t="s">
+      <c r="S102" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>60</v>
       </c>
@@ -4238,26 +4274,32 @@
       <c r="J103" s="1">
         <v>100</v>
       </c>
-      <c r="M103" s="9" t="s">
+      <c r="L103" s="1">
+        <v>100</v>
+      </c>
+      <c r="M103" s="1">
+        <v>100</v>
+      </c>
+      <c r="O103" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N103" s="9" t="s">
+      <c r="P103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O103" s="12">
+      <c r="Q103" s="12">
         <f>G117</f>
         <v>33.25</v>
       </c>
-      <c r="P103" s="12">
+      <c r="R103" s="12">
         <f>G118</f>
         <v>66.75</v>
       </c>
-      <c r="Q103" s="13">
-        <f>O103/P103</f>
+      <c r="S103" s="13">
+        <f>Q103/R103</f>
         <v>0.49812734082397003</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>61</v>
       </c>
@@ -4273,26 +4315,32 @@
       <c r="J104" s="1">
         <v>0</v>
       </c>
-      <c r="M104" s="9" t="s">
+      <c r="L104" s="1">
+        <v>100</v>
+      </c>
+      <c r="M104" s="1">
+        <v>0</v>
+      </c>
+      <c r="O104" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N104" s="9" t="s">
+      <c r="P104" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O104" s="12">
+      <c r="Q104" s="12">
         <f>F117</f>
         <v>52.416666666666664</v>
       </c>
-      <c r="P104" s="12">
+      <c r="R104" s="12">
         <f>F118</f>
         <v>47.583333333333336</v>
       </c>
-      <c r="Q104" s="13">
-        <f>O104/P104</f>
+      <c r="S104" s="13">
+        <f>Q104/R104</f>
         <v>1.1015761821366024</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>62</v>
       </c>
@@ -4308,26 +4356,32 @@
       <c r="J105" s="1">
         <v>0</v>
       </c>
-      <c r="M105" s="9" t="s">
+      <c r="L105" s="1">
+        <v>67</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="O105" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N105" s="9" t="s">
+      <c r="P105" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O105" s="12">
+      <c r="Q105" s="12">
         <f>J117</f>
         <v>25</v>
       </c>
-      <c r="P105" s="12">
+      <c r="R105" s="12">
         <f>J118</f>
         <v>75</v>
       </c>
-      <c r="Q105" s="13">
-        <f>O105/P105</f>
+      <c r="S105" s="13">
+        <f>Q105/R105</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>63</v>
       </c>
@@ -4343,26 +4397,32 @@
       <c r="J106" s="1">
         <v>0</v>
       </c>
-      <c r="M106" s="9" t="s">
+      <c r="L106" s="1">
+        <v>50</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="O106" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N106" s="9" t="s">
+      <c r="P106" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O106" s="12">
+      <c r="Q106" s="12">
         <f>I117</f>
         <v>75.833333333333329</v>
       </c>
-      <c r="P106" s="12">
+      <c r="R106" s="12">
         <f>I118</f>
         <v>24.166666666666671</v>
       </c>
-      <c r="Q106" s="13">
-        <f>O106/P106</f>
+      <c r="S106" s="13">
+        <f>Q106/R106</f>
         <v>3.137931034482758</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>64</v>
       </c>
@@ -4378,13 +4438,32 @@
       <c r="J107" s="1">
         <v>0</v>
       </c>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L107" s="1">
+        <v>100</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="O107" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q107" s="12">
+        <f>M117</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R107" s="12">
+        <f>M118</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="S107" s="13">
+        <f>Q107/R107</f>
+        <v>0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>65</v>
       </c>
@@ -4400,13 +4479,32 @@
       <c r="J108" s="1">
         <v>0</v>
       </c>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L108" s="1">
+        <v>67</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="O108" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P108" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q108" s="12">
+        <f>L117</f>
+        <v>83.083333333333329</v>
+      </c>
+      <c r="R108" s="12">
+        <f>L118</f>
+        <v>16.916666666666671</v>
+      </c>
+      <c r="S108" s="13">
+        <f>Q108/R108</f>
+        <v>4.9113300492610819</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>66</v>
       </c>
@@ -4422,13 +4520,19 @@
       <c r="J109" s="1">
         <v>0</v>
       </c>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L109" s="1">
+        <v>75</v>
+      </c>
+      <c r="M109" s="1">
+        <v>100</v>
+      </c>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="13"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>67</v>
       </c>
@@ -4444,13 +4548,19 @@
       <c r="J110" s="1">
         <v>100</v>
       </c>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L110" s="1">
+        <v>100</v>
+      </c>
+      <c r="M110" s="1">
+        <v>100</v>
+      </c>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="13"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>68</v>
       </c>
@@ -4466,8 +4576,14 @@
       <c r="J111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L111" s="1">
+        <v>100</v>
+      </c>
+      <c r="M111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>47</v>
       </c>
@@ -4483,8 +4599,14 @@
       <c r="J112" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L112" s="1">
+        <v>100</v>
+      </c>
+      <c r="M112" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F113" s="1">
         <v>47</v>
       </c>
@@ -4497,8 +4619,14 @@
       <c r="J113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L113" s="1">
+        <v>67</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F114" s="1">
         <v>52</v>
       </c>
@@ -4511,18 +4639,27 @@
       <c r="J114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P116" s="15" t="s">
+      <c r="L114" s="1">
+        <v>71</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M116" s="1"/>
+      <c r="R116" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q116" s="14">
-        <f>IFERROR(AVERAGE(Q103:Q115),0)</f>
-        <v>1.2677419726941659</v>
-      </c>
-    </row>
-    <row r="117" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S116" s="14">
+        <f>IFERROR(AVERAGE(S103:S115),0)</f>
+        <v>1.7470496566729576</v>
+      </c>
+    </row>
+    <row r="117" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E117" s="1" t="s">
         <v>4</v>
       </c>
@@ -4543,17 +4680,25 @@
         <f>AVERAGE(J103:J116)</f>
         <v>25</v>
       </c>
-      <c r="K117" s="8"/>
-      <c r="M117" s="2"/>
-      <c r="P117" s="1" t="s">
+      <c r="K117" s="6"/>
+      <c r="L117" s="6">
+        <f>AVERAGE(L103:L116)</f>
+        <v>83.083333333333329</v>
+      </c>
+      <c r="M117" s="6">
+        <f>AVERAGE(M103:M116)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="R117" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q117" s="16">
-        <f>MAX(Q103:Q110)</f>
-        <v>3.137931034482758</v>
-      </c>
-    </row>
-    <row r="118" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S117" s="16">
+        <f>MAX(S103:S110)</f>
+        <v>4.9113300492610819</v>
+      </c>
+    </row>
+    <row r="118" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E118" s="1" t="s">
         <v>5</v>
       </c>
@@ -4574,18 +4719,26 @@
         <f>100-J117</f>
         <v>75</v>
       </c>
-      <c r="K118" s="5"/>
-      <c r="P118" s="1" t="s">
+      <c r="K118" s="3"/>
+      <c r="L118" s="3">
+        <f>100-L117</f>
+        <v>16.916666666666671</v>
+      </c>
+      <c r="M118" s="3">
+        <f>100-M117</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="R118" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q118" s="16">
-        <f>MIN(Q103:Q115)</f>
+      <c r="S118" s="16">
+        <f>MIN(S103:S115)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M3:Q14">
-    <sortCondition ref="M3:M14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:S14">
+    <sortCondition ref="O3:O14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/analysis_parameter_table.xlsx
+++ b/analysis_parameter_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0889F8C-EE47-48C5-A843-B7AE9DF4653D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE2334C-C0B6-4645-9F9C-38E77BF788CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="0" windowWidth="28890" windowHeight="21600" xr2:uid="{191CE5D1-BBDA-48E6-9979-73933095B6B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{191CE5D1-BBDA-48E6-9979-73933095B6B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1684,13 +1684,13 @@
     </r>
   </si>
   <si>
-    <t>X8.5(1H)</t>
-  </si>
-  <si>
-    <t>X8.5 (15M)</t>
-  </si>
-  <si>
-    <t>X8.5</t>
+    <t>X8.75(1H)</t>
+  </si>
+  <si>
+    <t>X8.75 (15M)</t>
+  </si>
+  <si>
+    <t>X8.75</t>
   </si>
 </sst>
 </file>
@@ -2220,15 +2220,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="V112" sqref="V112"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
@@ -4295,7 +4296,7 @@
         <v>66.75</v>
       </c>
       <c r="S103" s="13">
-        <f>Q103/R103</f>
+        <f t="shared" ref="S103:S108" si="0">Q103/R103</f>
         <v>0.49812734082397003</v>
       </c>
     </row>
@@ -4336,7 +4337,7 @@
         <v>47.583333333333336</v>
       </c>
       <c r="S104" s="13">
-        <f>Q104/R104</f>
+        <f t="shared" si="0"/>
         <v>1.1015761821366024</v>
       </c>
     </row>
@@ -4377,7 +4378,7 @@
         <v>75</v>
       </c>
       <c r="S105" s="13">
-        <f>Q105/R105</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -4398,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M106" s="1">
         <v>0</v>
@@ -4418,7 +4419,7 @@
         <v>24.166666666666671</v>
       </c>
       <c r="S106" s="13">
-        <f>Q106/R106</f>
+        <f t="shared" si="0"/>
         <v>3.137931034482758</v>
       </c>
     </row>
@@ -4439,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M107" s="1">
         <v>0</v>
@@ -4452,15 +4453,15 @@
       </c>
       <c r="Q107" s="12">
         <f>M117</f>
-        <v>33.333333333333336</v>
+        <v>36.083333333333336</v>
       </c>
       <c r="R107" s="12">
         <f>M118</f>
-        <v>66.666666666666657</v>
+        <v>63.916666666666664</v>
       </c>
       <c r="S107" s="13">
-        <f>Q107/R107</f>
-        <v>0.50000000000000011</v>
+        <f t="shared" si="0"/>
+        <v>0.5645371577574968</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -4493,15 +4494,15 @@
       </c>
       <c r="Q108" s="12">
         <f>L117</f>
-        <v>83.083333333333329</v>
+        <v>84.916666666666671</v>
       </c>
       <c r="R108" s="12">
         <f>L118</f>
-        <v>16.916666666666671</v>
+        <v>15.083333333333329</v>
       </c>
       <c r="S108" s="13">
-        <f>Q108/R108</f>
-        <v>4.9113300492610819</v>
+        <f t="shared" si="0"/>
+        <v>5.6298342541436481</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -4620,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="1">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="M113" s="1">
         <v>0</v>
@@ -4640,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="L114" s="1">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="M114" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4656,7 +4657,7 @@
       </c>
       <c r="S116" s="14">
         <f>IFERROR(AVERAGE(S103:S115),0)</f>
-        <v>1.7470496566729576</v>
+        <v>1.8775565504463014</v>
       </c>
     </row>
     <row r="117" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4683,11 +4684,11 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6">
         <f>AVERAGE(L103:L116)</f>
-        <v>83.083333333333329</v>
+        <v>84.916666666666671</v>
       </c>
       <c r="M117" s="6">
         <f>AVERAGE(M103:M116)</f>
-        <v>33.333333333333336</v>
+        <v>36.083333333333336</v>
       </c>
       <c r="O117" s="2"/>
       <c r="R117" s="1" t="s">
@@ -4695,7 +4696,7 @@
       </c>
       <c r="S117" s="16">
         <f>MAX(S103:S110)</f>
-        <v>4.9113300492610819</v>
+        <v>5.6298342541436481</v>
       </c>
     </row>
     <row r="118" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4722,11 +4723,11 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3">
         <f>100-L117</f>
-        <v>16.916666666666671</v>
+        <v>15.083333333333329</v>
       </c>
       <c r="M118" s="3">
         <f>100-M117</f>
-        <v>66.666666666666657</v>
+        <v>63.916666666666664</v>
       </c>
       <c r="R118" s="1" t="s">
         <v>58</v>
